--- a/mdsap/Q&A_RDC RESOLUTION No. 665, OF MARCH 30, 2022.xlsx
+++ b/mdsap/Q&A_RDC RESOLUTION No. 665, OF MARCH 30, 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uppsalamonitoringcentre-my.sharepoint.com/personal/joana_felix_who-umc_org/Documents/Documents/UMC/Conferences/2025/SWISSMEDICAL/MDSAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolasperezgonzalez/Desktop/projects/llmtaskforce-rag/mdsap/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{286B9820-6512-4F20-98F3-B03A83A27378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D21D4FDA-19C3-46EE-B008-034F78EAE7D5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A793D956-CB6A-0647-8A06-F5126B130970}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="23240" windowHeight="14000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>ID</t>
   </si>
@@ -210,7 +210,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -488,22 +488,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="53.05078125" customWidth="1"/>
-    <col min="3" max="3" width="35.15625" customWidth="1"/>
-    <col min="4" max="4" width="27.15625" customWidth="1"/>
-    <col min="5" max="5" width="14.89453125" customWidth="1"/>
+    <col min="2" max="2" width="53" customWidth="1"/>
+    <col min="3" max="3" width="35.1640625" customWidth="1"/>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,13 +521,16 @@
       </c>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
@@ -536,13 +539,16 @@
       </c>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
@@ -551,13 +557,16 @@
       </c>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" ht="320" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D4" s="2" t="s">
         <v>23</v>
       </c>
@@ -566,13 +575,16 @@
       </c>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="187.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" ht="208" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
@@ -581,13 +593,16 @@
       </c>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="331.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" ht="350" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
@@ -596,13 +611,16 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="158.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" ht="160" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D7" s="2" t="s">
         <v>25</v>
       </c>
@@ -611,13 +629,16 @@
       </c>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" ht="224" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
@@ -626,13 +647,16 @@
       </c>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
       </c>
@@ -641,13 +665,16 @@
       </c>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D10" s="2" t="s">
         <v>16</v>
       </c>
@@ -655,13 +682,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" ht="96" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
       <c r="D11" s="2" t="s">
         <v>18</v>
       </c>
@@ -669,13 +699,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="C12" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="D12" s="2" t="s">
         <v>20</v>
       </c>
@@ -683,13 +716,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
@@ -697,13 +733,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" ht="128" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="C14" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
@@ -711,13 +750,16 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="172.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" ht="192" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="C15" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
@@ -725,13 +767,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="216" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" ht="240" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
@@ -739,24 +784,30 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="D17" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="115.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" ht="128" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="D18" s="2" t="s">
         <v>36</v>
       </c>
@@ -764,13 +815,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" s="2" t="s">
         <v>38</v>
       </c>
@@ -778,23 +832,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" ht="160" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="C20" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D20" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E20">
         <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
